--- a/sprints/15_05-29_05.xlsx
+++ b/sprints/15_05-29_05.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laisw\OneDrive\Documentos\Laís\ProjetoTCC\INI3A-EQ2\sprints\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F379D92E-7832-4E1F-A849-E53705DA3841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>PLANEJAMENTO 15 mai - 29 mai</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Responsável</t>
   </si>
@@ -23,10 +29,6 @@
   </si>
   <si>
     <t>Laís Fiori</t>
-  </si>
-  <si>
-    <t>Backend das telas Matérias, Tópicos e
- Atividades</t>
   </si>
   <si>
     <t>Entregas AP2
@@ -49,50 +51,94 @@
     <t>Anna Beatriz Valderrama</t>
   </si>
   <si>
-    <t>Frontend das telas Tópicos, Atividades e 
-Conteúdo</t>
-  </si>
-  <si>
     <t>Ana Luiza Aguiar</t>
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>Backend das telas Matérias e Tópicos</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Frontend das telas Matérias e Tópicos</t>
+  </si>
+  <si>
+    <t>PLANEJAMENTO 15 maio - 29 maio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font/>
-    <font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -106,27 +152,70 @@
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -138,25 +227,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -165,9 +237,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -176,77 +250,92 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -436,104 +525,134 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.63"/>
-    <col customWidth="1" min="2" max="2" width="31.25"/>
-    <col customWidth="1" min="3" max="3" width="12.5"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="D3" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="B7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="17" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="15" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C8"/>
@@ -541,8 +660,7 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>